--- a/数据整理/stocks/A股/创业板/300398-飞凯材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300398-飞凯材料.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,1167 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300398-飞凯材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300398-飞凯材料.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.93</v>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1827,13 +1870,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300398-飞凯材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300398-飞凯材料.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7066</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.93</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +532,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,13 +2011,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,36 +2068,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011052</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华弘裕一年持有期混合A</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>75.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>1.7066</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1870,36 +2106,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002018</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘安灵活配置混合A</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>90.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1908,272 +2144,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001190</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华弘润灵活配置混合 - A</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>90.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003456</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银新目标灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002019</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华弘安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011053</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华弘裕一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001191</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华弘润灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.93</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.74</v>
       </c>
     </row>
   </sheetData>
